--- a/data/trans_dic/P07B_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R2_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.9426594271341909</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.961665675976729</v>
+        <v>0.9616656759767288</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9430571173175318</v>
+        <v>0.9437782225266649</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9024587760405587</v>
+        <v>0.8956545427746982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9366789497191784</v>
+        <v>0.9376974308728304</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9946468975568302</v>
+        <v>0.99339181376998</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9700831982683165</v>
+        <v>0.9686185378945871</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9778421552785839</v>
+        <v>0.9793455768153859</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9551553521070248</v>
+        <v>0.955155352107025</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9546557982408149</v>
+        <v>0.954655798240815</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9548992345861241</v>
+        <v>0.9548992345861242</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9246666965962249</v>
+        <v>0.9262003581593929</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9301725562179634</v>
+        <v>0.9304108669748711</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9345887166583671</v>
+        <v>0.9368306295801703</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9771643970618499</v>
+        <v>0.9789712005002897</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9715464243254597</v>
+        <v>0.9739960429439675</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9686572239194652</v>
+        <v>0.9694177912504698</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9521438408508388</v>
+        <v>0.952143840850839</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.9479997422279423</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9500689260234799</v>
+        <v>0.9500689260234801</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9296999375190047</v>
+        <v>0.9299772651230002</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9320424839835967</v>
+        <v>0.9301920685446541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9370602770461179</v>
+        <v>0.9369474693837738</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9687915106185512</v>
+        <v>0.9672326037911743</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.961456119496963</v>
+        <v>0.9615359151929217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9606878949336896</v>
+        <v>0.9610114405085357</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9275182223284479</v>
+        <v>0.9275182223284478</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9108082660362047</v>
+        <v>0.9108082660362045</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9189524422625104</v>
+        <v>0.9189524422625106</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9016250232657634</v>
+        <v>0.9019939220788821</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8926862651058015</v>
+        <v>0.89132171750724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9041690526533699</v>
+        <v>0.9048006660707186</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9456933922466789</v>
+        <v>0.9453807811290336</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9270180510257457</v>
+        <v>0.9261587382740454</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9326014195284529</v>
+        <v>0.9311342225833791</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.9160351204625754</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8768204743949479</v>
+        <v>0.876820474394948</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8964357009203442</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8923998364289982</v>
+        <v>0.8939673733710738</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8525783643926261</v>
+        <v>0.8562722648033601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8814196075238004</v>
+        <v>0.88114311703129</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9348124171521971</v>
+        <v>0.9342385804304185</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8957169561966798</v>
+        <v>0.8965599989375534</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9101574584535942</v>
+        <v>0.9116361834580748</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9430433588461649</v>
+        <v>0.9430433588461646</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8859588646900031</v>
+        <v>0.8859588646900028</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.91341889724508</v>
+        <v>0.9134188972450801</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.921792052461836</v>
+        <v>0.9221993242225833</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8617553521787573</v>
+        <v>0.8624613417698332</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8974850866797913</v>
+        <v>0.8971744638045299</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9583445705627356</v>
+        <v>0.9594564024885706</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9068009450763964</v>
+        <v>0.9073133949653682</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9282342468651072</v>
+        <v>0.9274180841705462</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.7975091471628095</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8333340789594926</v>
+        <v>0.8333340789594927</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8547918189582786</v>
+        <v>0.8564815105979986</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7710978514389937</v>
+        <v>0.7702238117180126</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8145420951137404</v>
+        <v>0.8128424257983111</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9134195098083586</v>
+        <v>0.9149656231480628</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8249397749237126</v>
+        <v>0.8257154562771377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8544162480111952</v>
+        <v>0.8524491265560953</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9377184747389137</v>
+        <v>0.9377184747389139</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.9034356351702182</v>
+        <v>0.9034356351702181</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9200970439029104</v>
+        <v>0.9200970439029105</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9277182413802069</v>
+        <v>0.9280569831685138</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8956165434081854</v>
+        <v>0.8954244506289587</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9140673933132939</v>
+        <v>0.9144719136465607</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9455166784921518</v>
+        <v>0.9459422474153786</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9124535931559196</v>
+        <v>0.9115770360848944</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9260013833738482</v>
+        <v>0.9259598859826716</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>384572</v>
+        <v>384866</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>327152</v>
+        <v>324686</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>721528</v>
+        <v>722313</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>405610</v>
+        <v>405098</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>351667</v>
+        <v>351136</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>753237</v>
+        <v>754395</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>440964</v>
+        <v>441696</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>466698</v>
+        <v>466818</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>914610</v>
+        <v>916804</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>466000</v>
+        <v>466862</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>487457</v>
+        <v>488686</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>947950</v>
+        <v>948695</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>577192</v>
+        <v>577364</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>580249</v>
+        <v>579097</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1165134</v>
+        <v>1164994</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>601462</v>
+        <v>600494</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>598560</v>
+        <v>598610</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1194513</v>
+        <v>1194915</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>631694</v>
+        <v>631952</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>657808</v>
+        <v>656802</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1299747</v>
+        <v>1300655</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>662569</v>
+        <v>662350</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>683107</v>
+        <v>682473</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1340618</v>
+        <v>1338509</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>543780</v>
+        <v>544735</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>519097</v>
+        <v>521346</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1073747</v>
+        <v>1073410</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>569624</v>
+        <v>569275</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>545362</v>
+        <v>545875</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1108756</v>
+        <v>1110557</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>375243</v>
+        <v>375409</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>378454</v>
+        <v>378764</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>759493</v>
+        <v>759230</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>390123</v>
+        <v>390576</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>398236</v>
+        <v>398461</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>785515</v>
+        <v>784824</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>265155</v>
+        <v>265679</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>358259</v>
+        <v>357853</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>631113</v>
+        <v>629796</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>283341</v>
+        <v>283821</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>383274</v>
+        <v>383635</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>662008</v>
+        <v>660484</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3277408</v>
+        <v>3278604</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3346308</v>
+        <v>3345590</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6644429</v>
+        <v>6647369</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3340285</v>
+        <v>3341789</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3409217</v>
+        <v>3405942</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6731178</v>
+        <v>6730876</v>
       </c>
     </row>
     <row r="36">
